--- a/results/FrequencyTables/27341108_gRNA-3.xlsx
+++ b/results/FrequencyTables/27341108_gRNA-3.xlsx
@@ -465,73 +465,73 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.98989898989899</v>
+        <v>0.960869565217391</v>
       </c>
       <c r="C2">
-        <v>0.0101010101010101</v>
+        <v>0.0268115942028985</v>
       </c>
       <c r="D2">
-        <v>0.95959595959596</v>
+        <v>0.794927536231884</v>
       </c>
       <c r="E2">
-        <v>0.383838383838384</v>
+        <v>0.426811594202899</v>
       </c>
       <c r="F2">
-        <v>0.919191919191919</v>
+        <v>0.938405797101449</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>0.00217391304347826</v>
       </c>
       <c r="H2">
-        <v>0.98989898989899</v>
+        <v>0.973913043478261</v>
       </c>
       <c r="I2">
-        <v>0.97979797979798</v>
+        <v>0.955797101449275</v>
       </c>
       <c r="J2">
-        <v>0.0303030303030303</v>
+        <v>0.0108695652173913</v>
       </c>
       <c r="K2">
-        <v>0.0101010101010101</v>
+        <v>0.0108695652173913</v>
       </c>
       <c r="L2">
-        <v>0.0808080808080808</v>
+        <v>0.0920289855072464</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.00507246376811594</v>
       </c>
       <c r="N2">
-        <v>0.0101010101010101</v>
+        <v>0.00434782608695652</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.951449275362319</v>
       </c>
       <c r="P2">
-        <v>0.101010101010101</v>
+        <v>0.201449275362319</v>
       </c>
       <c r="Q2">
-        <v>0.494949494949495</v>
+        <v>0.426811594202899</v>
       </c>
       <c r="R2">
-        <v>0.131313131313131</v>
+        <v>0.102898550724638</v>
       </c>
       <c r="S2">
-        <v>0</v>
+        <v>0.00434782608695652</v>
       </c>
       <c r="T2">
-        <v>0.0101010101010101</v>
+        <v>0.022463768115942</v>
       </c>
       <c r="U2">
-        <v>0</v>
+        <v>0.00507246376811594</v>
       </c>
       <c r="V2">
-        <v>0.98989898989899</v>
+        <v>0.952173913043478</v>
       </c>
       <c r="W2">
-        <v>0.424242424242424</v>
+        <v>0.564492753623188</v>
       </c>
       <c r="X2">
-        <v>0.0606060606060606</v>
+        <v>0.0528985507246377</v>
       </c>
     </row>
     <row r="3" spans="1:24">
@@ -539,73 +539,73 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>0.0036231884057971</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>0.0181159420289855</v>
       </c>
       <c r="D3">
-        <v>0.0101010101010101</v>
+        <v>0.0231884057971014</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>0.0123188405797101</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>0.0072463768115942</v>
       </c>
       <c r="G3">
-        <v>0.0101010101010101</v>
+        <v>0.013768115942029</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.00942028985507246</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.0072463768115942</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.0036231884057971</v>
       </c>
       <c r="K3">
-        <v>0.0303030303030303</v>
+        <v>0.0108695652173913</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.0289855072463768</v>
       </c>
       <c r="M3">
-        <v>0.171717171717172</v>
+        <v>0.144927536231884</v>
       </c>
       <c r="N3">
-        <v>0.0101010101010101</v>
+        <v>0.0036231884057971</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.0404040404040404</v>
+        <v>0.146376811594203</v>
       </c>
       <c r="Q3">
-        <v>0.0606060606060606</v>
+        <v>0.0369565217391304</v>
       </c>
       <c r="R3">
-        <v>0.0303030303030303</v>
+        <v>0.0297101449275362</v>
       </c>
       <c r="S3">
-        <v>0</v>
+        <v>0.00797101449275362</v>
       </c>
       <c r="T3">
-        <v>0</v>
+        <v>0.00289855072463768</v>
       </c>
       <c r="U3">
-        <v>0</v>
+        <v>0.00797101449275362</v>
       </c>
       <c r="V3">
-        <v>0</v>
+        <v>0.0173913043478261</v>
       </c>
       <c r="W3">
-        <v>0</v>
+        <v>0.0123188405797101</v>
       </c>
       <c r="X3">
-        <v>0</v>
+        <v>0.0159420289855072</v>
       </c>
     </row>
     <row r="4" spans="1:24">
@@ -613,73 +613,73 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.0101010101010101</v>
+        <v>0.0253623188405797</v>
       </c>
       <c r="C4">
-        <v>0.98989898989899</v>
+        <v>0.938405797101449</v>
       </c>
       <c r="D4">
-        <v>0.0303030303030303</v>
+        <v>0.173188405797101</v>
       </c>
       <c r="E4">
-        <v>0.616161616161616</v>
+        <v>0.543478260869565</v>
       </c>
       <c r="F4">
-        <v>0.0707070707070707</v>
+        <v>0.0376811594202899</v>
       </c>
       <c r="G4">
-        <v>0.97979797979798</v>
+        <v>0.981884057971015</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.00652173913043478</v>
       </c>
       <c r="I4">
-        <v>0.0101010101010101</v>
+        <v>0.0268115942028985</v>
       </c>
       <c r="J4">
-        <v>0.95959595959596</v>
+        <v>0.96304347826087</v>
       </c>
       <c r="K4">
-        <v>0.0404040404040404</v>
+        <v>0.0557971014492754</v>
       </c>
       <c r="L4">
-        <v>0.919191919191919</v>
+        <v>0.872463768115942</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.00869565217391304</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>0.0108695652173913</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>0.041304347826087</v>
       </c>
       <c r="P4">
-        <v>0.858585858585859</v>
+        <v>0.648550724637681</v>
       </c>
       <c r="Q4">
-        <v>0</v>
+        <v>0.00217391304347826</v>
       </c>
       <c r="R4">
-        <v>0.838383838383838</v>
+        <v>0.865217391304348</v>
       </c>
       <c r="S4">
-        <v>0</v>
+        <v>0.00144927536231884</v>
       </c>
       <c r="T4">
-        <v>0.98989898989899</v>
+        <v>0.969565217391304</v>
       </c>
       <c r="U4">
-        <v>1</v>
+        <v>0.986231884057971</v>
       </c>
       <c r="V4">
-        <v>0.0101010101010101</v>
+        <v>0.013768115942029</v>
       </c>
       <c r="W4">
-        <v>0.565656565656566</v>
+        <v>0.406521739130435</v>
       </c>
       <c r="X4">
-        <v>0.929292929292929</v>
+        <v>0.913768115942029</v>
       </c>
     </row>
     <row r="5" spans="1:24">
@@ -687,73 +687,73 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>0.0101449275362319</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>0.0159420289855072</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>0.00869565217391304</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>0.0159420289855072</v>
       </c>
       <c r="F5">
-        <v>0.0101010101010101</v>
+        <v>0.0166666666666667</v>
       </c>
       <c r="G5">
-        <v>0.0101010101010101</v>
+        <v>0.00217391304347826</v>
       </c>
       <c r="H5">
-        <v>0.0101010101010101</v>
+        <v>0.0101449275362319</v>
       </c>
       <c r="I5">
-        <v>0.0101010101010101</v>
+        <v>0.0101449275362319</v>
       </c>
       <c r="J5">
-        <v>0.0101010101010101</v>
+        <v>0.022463768115942</v>
       </c>
       <c r="K5">
-        <v>0.919191919191919</v>
+        <v>0.922463768115942</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.00579710144927536</v>
       </c>
       <c r="M5">
-        <v>0.828282828282828</v>
+        <v>0.839855072463768</v>
       </c>
       <c r="N5">
-        <v>0.97979797979798</v>
+        <v>0.981159420289855</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>0.00652173913043478</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>0.00289855072463768</v>
       </c>
       <c r="Q5">
-        <v>0.444444444444444</v>
+        <v>0.534057971014493</v>
       </c>
       <c r="R5">
-        <v>0</v>
+        <v>0.00217391304347826</v>
       </c>
       <c r="S5">
-        <v>1</v>
+        <v>0.986231884057971</v>
       </c>
       <c r="T5">
-        <v>0</v>
+        <v>0.00434782608695652</v>
       </c>
       <c r="U5">
-        <v>0</v>
+        <v>0.00072463768115942</v>
       </c>
       <c r="V5">
-        <v>0</v>
+        <v>0.0166666666666667</v>
       </c>
       <c r="W5">
-        <v>0.0101010101010101</v>
+        <v>0.0166666666666667</v>
       </c>
       <c r="X5">
-        <v>0</v>
+        <v>0.0166666666666667</v>
       </c>
     </row>
   </sheetData>
